--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AED301FC-8D34-B747-AF42-A6109AE52348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AED418-0CF0-8543-AAC2-762198E482FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="1480" windowWidth="28820" windowHeight="19960" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
   <si>
     <t>Lugburz</t>
   </si>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>http://tolkiengateway.net/wiki/Dagor_Bragollach</t>
+  </si>
+  <si>
+    <t>forest?</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1228,6 +1231,12 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
+      <c r="E17" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">

--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AED418-0CF0-8543-AAC2-762198E482FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0D5CD-95C9-D144-B5A7-2FFD2EBCD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1480" windowWidth="28820" windowHeight="19960" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
+    <workbookView xWindow="3300" yWindow="500" windowWidth="27480" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="153">
   <si>
     <t>Lugburz</t>
   </si>
@@ -259,6 +259,9 @@
     <t>place type</t>
   </si>
   <si>
+    <t>tower</t>
+  </si>
+  <si>
     <t>begin year</t>
   </si>
   <si>
@@ -343,9 +346,6 @@
     <t>Tower of the Guard, Minas Anor, Mundburg, The Guarded City, Tower of Arnor</t>
   </si>
   <si>
-    <t>Gondor, Easternmost point of the White Mountains, close to Anduin</t>
-  </si>
-  <si>
     <t>Between Gondor and Rohan</t>
   </si>
   <si>
@@ -403,9 +403,6 @@
     <t>http://tolkiengateway.net/wiki/Avathar</t>
   </si>
   <si>
-    <t>tower and fortress</t>
-  </si>
-  <si>
     <t>and this red covers my stronghold Angband</t>
   </si>
   <si>
@@ -430,16 +427,76 @@
     <t>http://tolkiengateway.net/wiki/Angband</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dagor Bragollach</t>
-  </si>
-  <si>
     <t>FA455</t>
   </si>
   <si>
     <t>http://tolkiengateway.net/wiki/Dagor_Bragollach</t>
   </si>
   <si>
-    <t>forest?</t>
+    <t>Easternmost point of the White Mountains, close to Anduin</t>
+  </si>
+  <si>
+    <t>Gondor</t>
+  </si>
+  <si>
+    <t>Gondor, Rohan</t>
+  </si>
+  <si>
+    <t>Thangorodrim</t>
+  </si>
+  <si>
+    <t>Ard-galen</t>
+  </si>
+  <si>
+    <t>Streams of fire flowing out of Thangorodrim and burned Ard-galen.</t>
+  </si>
+  <si>
+    <t>The riders of Maglor were sacrifices of the flames.</t>
+  </si>
+  <si>
+    <t>Maglor</t>
+  </si>
+  <si>
+    <t>On the planes of Lothlann victory on our side the
+triumph of Morgoth.</t>
+  </si>
+  <si>
+    <t>Lothlann</t>
+  </si>
+  <si>
+    <t>Morgoth</t>
+  </si>
+  <si>
+    <t>Streams of fire flowing out of Thangorodrim and
+burned Ard-galen.</t>
+  </si>
+  <si>
+    <t>Dol Enshrined in silence and runes will keep
+the secrets of Dol Guldur</t>
+  </si>
+  <si>
+    <t>In the Land of Mordor where the Shadows lie.</t>
+  </si>
+  <si>
+    <t>The Morgul road was hidden by clowds of doom</t>
+  </si>
+  <si>
+    <t>Morgul</t>
+  </si>
+  <si>
+    <t>My heart for your word Ered Engrin</t>
+  </si>
+  <si>
+    <t>Ered Engrin</t>
+  </si>
+  <si>
+    <t>Iron Mountains</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Iron_Mountains</t>
+  </si>
+  <si>
+    <t>My heart for your word, Dor Daedeloth,</t>
   </si>
 </sst>
 </file>
@@ -494,11 +551,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0522EB-0476-FB45-AC71-51653D98331B}">
-  <dimension ref="A1:N64"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -825,8 +885,8 @@
     <col min="3" max="3" width="34" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="28.33203125" customWidth="1"/>
+    <col min="6" max="7" width="28.33203125" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" customWidth="1"/>
     <col min="9" max="9" width="51.33203125" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
     <col min="11" max="11" width="20.83203125" customWidth="1"/>
@@ -846,16 +906,16 @@
         <v>71</v>
       </c>
       <c r="E1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" t="s">
         <v>73</v>
-      </c>
-      <c r="G1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" t="s">
-        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>68</v>
@@ -864,16 +924,16 @@
         <v>114</v>
       </c>
       <c r="K1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -893,22 +953,22 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>108</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -969,28 +1029,28 @@
         <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>128</v>
+        <v>74</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1004,25 +1064,28 @@
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N8" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1036,19 +1099,22 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1062,16 +1128,19 @@
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>103</v>
@@ -1094,19 +1163,22 @@
         <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1136,7 +1208,7 @@
       <c r="E13" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>111</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1150,23 +1222,23 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+      <c r="A14">
         <v>1997</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
         <v>123</v>
       </c>
-      <c r="E14" t="s">
-        <v>124</v>
-      </c>
       <c r="N14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -1186,10 +1258,10 @@
         <v>113</v>
       </c>
       <c r="F15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>119</v>
@@ -1198,47 +1270,41 @@
         <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>1995</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1995</v>
       </c>
@@ -1246,518 +1312,674 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="119" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="D20" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1995</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="119" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1996</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="136" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1995</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="85" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1995</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1995</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+      <c r="N27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="D28" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>1997</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B29" t="s">
         <v>2</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E29" t="s">
         <v>67</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I29" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>1997</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B30" t="s">
         <v>2</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>1997</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B31" t="s">
         <v>2</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>1997</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B32" t="s">
         <v>2</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C32" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>1997</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>1997</v>
-      </c>
-      <c r="B25" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>1999</v>
-      </c>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>1999</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>1999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>1999</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>1999</v>
-      </c>
-      <c r="B30" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>1999</v>
-      </c>
-      <c r="B31" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>1999</v>
-      </c>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2006</v>
+        <v>1999</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2013</v>
+        <v>2001</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>2018</v>
+        <v>2006</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
+        <v>2013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2013</v>
+      </c>
+      <c r="B65" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>2013</v>
+      </c>
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>2018</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B67" t="s">
         <v>7</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>2018</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>2018</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>2018</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2018</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" t="s">
         <v>64</v>
       </c>
     </row>

--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB0D5CD-95C9-D144-B5A7-2FFD2EBCD41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852E604-2A6F-9B47-9962-A746B24C91DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="500" windowWidth="27480" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
+    <workbookView xWindow="4400" yWindow="500" windowWidth="25280" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="168">
   <si>
     <t>Lugburz</t>
   </si>
@@ -497,13 +497,58 @@
   </si>
   <si>
     <t>My heart for your word, Dor Daedeloth,</t>
+  </si>
+  <si>
+    <t>And so we pass the mountains of Ered Gorgoroth</t>
+  </si>
+  <si>
+    <t>In the direction of Hithlum…</t>
+  </si>
+  <si>
+    <t>Ered Gorgoroth</t>
+  </si>
+  <si>
+    <t>Hithlum</t>
+  </si>
+  <si>
+    <t>In Mordor where the shadows are</t>
+  </si>
+  <si>
+    <t>Gondolin</t>
+  </si>
+  <si>
+    <t>Gondothlimbar, Gar Thurion, Gwarestrin, Gondobar, Ondolindë</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Gondolin</t>
+  </si>
+  <si>
+    <t>Moria</t>
+  </si>
+  <si>
+    <t>Halls of Durin, Mines of Moria, Dwarrowdelf, Hadhodrond</t>
+  </si>
+  <si>
+    <t>Beneath the mountains of Celebdil, Caradhras and Fanuidhol</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Khazad-d%C3%BBm</t>
+  </si>
+  <si>
+    <t>For dark are the waters of Kheledzaram</t>
+  </si>
+  <si>
+    <t>Kheledzaram</t>
+  </si>
+  <si>
+    <t>In Khazad-dûm his wisdom died</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -518,8 +563,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,6 +591,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -548,19 +613,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -873,10 +943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0522EB-0476-FB45-AC71-51653D98331B}">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -936,38 +1006,38 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1995</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1015,169 +1085,169 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
         <v>1995</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
         <v>1995</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>1995</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
         <v>1995</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
         <v>1995</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1192,32 +1262,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>1996</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1241,32 +1311,32 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>1995</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1331,7 +1401,7 @@
       <c r="C19" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E19" t="s">
@@ -1339,33 +1409,33 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="119" x14ac:dyDescent="0.2">
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>1995</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="4" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1379,7 +1449,7 @@
       <c r="C22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>143</v>
       </c>
       <c r="E22" t="s">
@@ -1396,7 +1466,7 @@
       <c r="C23" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="6" t="s">
         <v>144</v>
       </c>
       <c r="E23" t="s">
@@ -1419,7 +1489,7 @@
       <c r="C24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>146</v>
       </c>
       <c r="E24" t="s">
@@ -1436,7 +1506,7 @@
       <c r="C25" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="6" t="s">
         <v>145</v>
       </c>
       <c r="E25" t="s">
@@ -1458,10 +1528,16 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1995</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="6" t="s">
         <v>148</v>
       </c>
       <c r="E27" t="s">
@@ -1475,39 +1551,54 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="68" x14ac:dyDescent="0.2">
-      <c r="D28" s="4" t="s">
+      <c r="A28">
+        <v>1995</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>152</v>
       </c>
       <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="85" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="51" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="B30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E30" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1518,7 +1609,16 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.2">
@@ -1529,10 +1629,16 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="D32" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1997</v>
       </c>
@@ -1540,10 +1646,25 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>158</v>
+      </c>
+      <c r="F33" t="s">
+        <v>159</v>
+      </c>
+      <c r="H33" t="s">
+        <v>100</v>
+      </c>
+      <c r="N33" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1997</v>
       </c>
@@ -1551,54 +1672,83 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" t="s">
+        <v>167</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" t="s">
+        <v>124</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1998</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7">
+        <v>1997</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1997</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1997</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>1999</v>
-      </c>
-      <c r="B35" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>1999</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1999</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>1999</v>
-      </c>
-      <c r="B38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1999</v>
       </c>
@@ -1606,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1999</v>
       </c>
@@ -1617,10 +1767,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1999</v>
       </c>
@@ -1628,10 +1778,10 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1999</v>
       </c>
@@ -1639,54 +1789,54 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1999</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1999</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1999</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1999</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>2001</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>2001</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>2001</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>2001</v>
-      </c>
-      <c r="B46" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2001</v>
       </c>
@@ -1694,10 +1844,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2001</v>
       </c>
@@ -1705,7 +1855,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1716,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1727,51 +1877,51 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1782,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,7 +1943,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,7 +1954,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1815,51 +1965,51 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1870,7 +2020,7 @@
         <v>6</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -1881,7 +2031,7 @@
         <v>6</v>
       </c>
       <c r="C64" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1892,7 +2042,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -1903,51 +2053,51 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -1958,7 +2108,7 @@
         <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -1969,7 +2119,7 @@
         <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -1980,10 +2130,57 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2018</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>2018</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>2018</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2018</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N34" r:id="rId1" xr:uid="{581E60D1-CAC9-4E43-9821-4B7AC02DBD5F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7852E604-2A6F-9B47-9962-A746B24C91DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E6220-E52B-574A-9930-7F016846D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4400" yWindow="500" windowWidth="25280" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
+    <workbookView xWindow="3720" yWindow="500" windowWidth="26720" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
   <si>
     <t>Lugburz</t>
   </si>
@@ -542,6 +542,45 @@
   </si>
   <si>
     <t>In Khazad-dûm his wisdom died</t>
+  </si>
+  <si>
+    <t>At the stone of Erech they shall stand again</t>
+  </si>
+  <si>
+    <t>To the Paths of the Dead</t>
+  </si>
+  <si>
+    <t>Paths of the Dead</t>
+  </si>
+  <si>
+    <t>Kôrtirion</t>
+  </si>
+  <si>
+    <t>The Cottage of Lost Play</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Cottage_of_Lost_Play</t>
+  </si>
+  <si>
+    <t>Tol Eressëa</t>
+  </si>
+  <si>
+    <t>The Lonely Island, The Lonely Isle, Eressëa</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>Off the east coast of Aman in the Bay of Eldamar</t>
+  </si>
+  <si>
+    <t>Rhûn</t>
+  </si>
+  <si>
+    <t>The East, Eastlands</t>
+  </si>
+  <si>
+    <t>All thy trees, Kôrtirion, were bent, since first the elves here built ancient, renowned Kôrtirion</t>
   </si>
 </sst>
 </file>
@@ -572,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -597,12 +636,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -617,7 +650,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -627,7 +660,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -943,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0522EB-0476-FB45-AC71-51653D98331B}">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1715,15 +1747,21 @@
       <c r="I35" s="6"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>1997</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" t="s">
         <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>180</v>
+      </c>
+      <c r="E36" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -1736,38 +1774,68 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B38" t="s">
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="D38" t="s">
+        <v>169</v>
+      </c>
+      <c r="E38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J39" t="s">
+        <v>177</v>
+      </c>
+      <c r="N39" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1999</v>
-      </c>
-      <c r="B40" t="s">
-        <v>3</v>
-      </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>178</v>
+      </c>
+      <c r="D40" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -1778,7 +1846,7 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
@@ -1789,7 +1857,7 @@
         <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
@@ -1800,7 +1868,7 @@
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
@@ -1811,7 +1879,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
@@ -1822,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
@@ -1833,29 +1901,29 @@
         <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1866,7 +1934,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1877,7 +1945,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1888,7 +1956,7 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -1899,7 +1967,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -1910,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -1921,29 +1989,29 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>2006</v>
+        <v>2001</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -1954,7 +2022,7 @@
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -1965,7 +2033,7 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -1976,7 +2044,7 @@
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1987,7 +2055,7 @@
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -1998,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2009,29 +2077,29 @@
         <v>5</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2042,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2053,7 +2121,7 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2064,7 +2132,7 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2075,7 +2143,7 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2086,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2097,29 +2165,29 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>2018</v>
+        <v>2013</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2130,7 +2198,7 @@
         <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2141,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2152,7 +2220,7 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2163,7 +2231,7 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2174,6 +2242,28 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>2018</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>2018</v>
+      </c>
+      <c r="B79" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" t="s">
         <v>64</v>
       </c>
     </row>

--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07E6220-E52B-574A-9930-7F016846D076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E391966-352D-6747-AC14-CD98910F2CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="500" windowWidth="26720" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
+    <workbookView xWindow="12000" yWindow="500" windowWidth="18400" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="225">
   <si>
     <t>Lugburz</t>
   </si>
@@ -581,6 +581,138 @@
   </si>
   <si>
     <t>All thy trees, Kôrtirion, were bent, since first the elves here built ancient, renowned Kôrtirion</t>
+  </si>
+  <si>
+    <t>Morgoth snow-white marble eyes</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Rh%C3%BBn</t>
+  </si>
+  <si>
+    <t>Alalminore one in ancient realms</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Alalmin%C3%B3r%C3%AB</t>
+  </si>
+  <si>
+    <t>Frodo's path</t>
+  </si>
+  <si>
+    <t>Hail Éomer, King of the Mark.</t>
+  </si>
+  <si>
+    <t>Rohan</t>
+  </si>
+  <si>
+    <t>Riddermark, The Mark, The Mark of the Riders, Rochand, Rochann</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Thorin_II_Oakenshield</t>
+  </si>
+  <si>
+    <t>Lonely Mountain</t>
+  </si>
+  <si>
+    <t>Mountain King(Thorin II Oakenshield)</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Melkor</t>
+  </si>
+  <si>
+    <t>Udûn (valley)</t>
+  </si>
+  <si>
+    <t>Utumno</t>
+  </si>
+  <si>
+    <t>valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the first fortress of Melkor in the far north of Middle-earth, before the First Age.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thou hast dared to mock me, and to question the power of Melkor, Master of the fates of Arda. </t>
+  </si>
+  <si>
+    <t>Mordor-ob bot-tuk(Of Mordor through the world)</t>
+  </si>
+  <si>
+    <t>From Hitblum's walls they saw the fire</t>
+  </si>
+  <si>
+    <t>a vast region in northwestern Middle-earth during the First Age</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Beleriand</t>
+  </si>
+  <si>
+    <t>Dungorthin, where all ways were dead</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>Nan Dungortheb</t>
+  </si>
+  <si>
+    <t>http://tolkiengateway.net/wiki/Nan_Dungortheb</t>
+  </si>
+  <si>
+    <t>Dor Firn-i-Guinar(Land of the Dead that Live)</t>
+  </si>
+  <si>
+    <t>Dor Firn-i-Guinar</t>
+  </si>
+  <si>
+    <t>http://tolkiengateway.net/wiki/Menegroth</t>
+  </si>
+  <si>
+    <t>http://tolkiengateway.net/wiki/Uncommon_words</t>
+  </si>
+  <si>
+    <t>(Tolkien's suggesting "flame-bearer", as a reference to the blazing Silmaril borne by Eärendil)</t>
+  </si>
+  <si>
+    <t>The Hidden City, The Hidden Realm</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Minas_Tirith</t>
+  </si>
+  <si>
+    <t>Redhorn, Barazinbar</t>
+  </si>
+  <si>
+    <t>Tar-Calion(Ar-Pharazôn)</t>
+  </si>
+  <si>
+    <t>http://tolkiengateway.net/wiki/Tar-Calion</t>
+  </si>
+  <si>
+    <t>Elenna</t>
+  </si>
+  <si>
+    <t>http://tolkiengateway.net/wiki/Elenna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	In Belegaer, between Aman and Middle-earth</t>
+  </si>
+  <si>
+    <t>Zirakzigil</t>
+  </si>
+  <si>
+    <t>Misty Mountain</t>
+  </si>
+  <si>
+    <t>Above Khazad-dûm, south of Caradhras and Fanuidhol, on the border between Eriador and Rhovanion</t>
+  </si>
+  <si>
+    <t>Celebdil, Zirakzigil, Silvertine</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Carcharoth</t>
+  </si>
+  <si>
+    <t>https://lotr.fandom.com/wiki/Herumor</t>
   </si>
 </sst>
 </file>
@@ -611,7 +743,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -636,6 +768,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -650,7 +788,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -660,6 +798,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -975,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0522EB-0476-FB45-AC71-51653D98331B}">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:O80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="J61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="Q94" sqref="Q94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1797,6 +1936,9 @@
       <c r="E38" t="s">
         <v>170</v>
       </c>
+      <c r="H38" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1834,8 +1976,17 @@
       <c r="D40" t="s">
         <v>178</v>
       </c>
+      <c r="E40" t="s">
+        <v>178</v>
+      </c>
       <c r="F40" t="s">
         <v>179</v>
+      </c>
+      <c r="H40" t="s">
+        <v>124</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
@@ -1859,6 +2010,12 @@
       <c r="C42" t="s">
         <v>28</v>
       </c>
+      <c r="D42" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
@@ -1892,6 +2049,18 @@
       <c r="C45" t="s">
         <v>31</v>
       </c>
+      <c r="D45" t="s">
+        <v>183</v>
+      </c>
+      <c r="E45" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" t="s">
+        <v>175</v>
+      </c>
+      <c r="N45" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
@@ -1903,6 +2072,9 @@
       <c r="C46" t="s">
         <v>32</v>
       </c>
+      <c r="D46" s="7" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
@@ -1926,7 +2098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>2001</v>
       </c>
@@ -1937,7 +2109,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>2001</v>
       </c>
@@ -1947,8 +2119,23 @@
       <c r="C50" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>188</v>
+      </c>
+      <c r="G50" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>2001</v>
       </c>
@@ -1959,7 +2146,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2001</v>
       </c>
@@ -1970,7 +2157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>2001</v>
       </c>
@@ -1980,8 +2167,17 @@
       <c r="C53" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -1992,7 +2188,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2001</v>
       </c>
@@ -2003,7 +2199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2001</v>
       </c>
@@ -2014,7 +2210,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2006</v>
       </c>
@@ -2024,8 +2220,26 @@
       <c r="C57" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>197</v>
+      </c>
+      <c r="E57" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" t="s">
+        <v>195</v>
+      </c>
+      <c r="I57" t="s">
+        <v>196</v>
+      </c>
+      <c r="N57" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2006</v>
       </c>
@@ -2036,7 +2250,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -2046,8 +2260,14 @@
       <c r="C59" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2006</v>
       </c>
@@ -2057,8 +2277,17 @@
       <c r="C60" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>199</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2006</v>
       </c>
@@ -2068,19 +2297,34 @@
       <c r="C61" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>2006</v>
-      </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J61" t="s">
+        <v>200</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" t="s">
+        <v>204</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N62" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2006</v>
       </c>
@@ -2088,10 +2332,19 @@
         <v>5</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="D63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2006</v>
       </c>
@@ -2099,21 +2352,36 @@
         <v>5</v>
       </c>
       <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>49</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>2006</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>2013</v>
-      </c>
-      <c r="B65" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>206</v>
+      </c>
+      <c r="E65" t="s">
+        <v>207</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -2121,10 +2389,10 @@
         <v>6</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -2132,10 +2400,25 @@
         <v>6</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="D67" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" t="s">
+        <v>211</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2013</v>
       </c>
@@ -2143,10 +2426,10 @@
         <v>6</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -2154,10 +2437,34 @@
         <v>6</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="D69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E69" t="s">
+        <v>94</v>
+      </c>
+      <c r="F69" t="s">
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>133</v>
+      </c>
+      <c r="H69" t="s">
+        <v>100</v>
+      </c>
+      <c r="I69" t="s">
+        <v>132</v>
+      </c>
+      <c r="K69" t="s">
+        <v>87</v>
+      </c>
+      <c r="N69" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2013</v>
       </c>
@@ -2165,10 +2472,25 @@
         <v>6</v>
       </c>
       <c r="C70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s">
+        <v>213</v>
+      </c>
+      <c r="G70" t="s">
+        <v>161</v>
+      </c>
+      <c r="H70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2013</v>
       </c>
@@ -2176,10 +2498,10 @@
         <v>6</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2013</v>
       </c>
@@ -2187,21 +2509,21 @@
         <v>6</v>
       </c>
       <c r="C72" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>2013</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>2018</v>
-      </c>
-      <c r="B73" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -2209,10 +2531,28 @@
         <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="D74" t="s">
+        <v>214</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="H74" t="s">
+        <v>176</v>
+      </c>
+      <c r="I74" t="s">
+        <v>218</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -2220,10 +2560,28 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E75" t="s">
+        <v>220</v>
+      </c>
+      <c r="F75" t="s">
+        <v>222</v>
+      </c>
+      <c r="G75" t="s">
+        <v>161</v>
+      </c>
+      <c r="H75" t="s">
+        <v>104</v>
+      </c>
+      <c r="I75" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -2231,10 +2589,19 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="D76" t="s">
+        <v>123</v>
+      </c>
+      <c r="E76" t="s">
+        <v>149</v>
+      </c>
+      <c r="N76" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -2242,10 +2609,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -2253,10 +2623,10 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -2264,12 +2634,33 @@
         <v>7</v>
       </c>
       <c r="C79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>2018</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="N34" r:id="rId1" xr:uid="{581E60D1-CAC9-4E43-9821-4B7AC02DBD5F}"/>
+    <hyperlink ref="N40" r:id="rId2" xr:uid="{035035AB-520F-094C-A885-DEC8D746FBFB}"/>
+    <hyperlink ref="N45" r:id="rId3" xr:uid="{5812880E-97D6-D042-8934-A6216B3624DD}"/>
+    <hyperlink ref="N53" r:id="rId4" xr:uid="{9E4F2684-76C5-FC42-87AC-44A28BE8F982}"/>
+    <hyperlink ref="N57" r:id="rId5" xr:uid="{B23E7D3F-FDDC-AF45-953E-4FB30DCE7C23}"/>
+    <hyperlink ref="N61" r:id="rId6" xr:uid="{C7D6A8B4-3D13-0645-8BE0-B02CFAD726F9}"/>
+    <hyperlink ref="N64" r:id="rId7" xr:uid="{4747DAE3-4ECA-4842-9B1C-FD979A48E494}"/>
+    <hyperlink ref="N67" r:id="rId8" xr:uid="{CAF1111A-1F5C-2D45-8B83-944B7FD5D704}"/>
+    <hyperlink ref="N74" r:id="rId9" xr:uid="{E519F547-03AC-FA4A-8730-D014042DF8CB}"/>
+    <hyperlink ref="O74" r:id="rId10" xr:uid="{7E05CD30-8908-B545-B3A2-FDBAF51DDF43}"/>
+    <hyperlink ref="N77" r:id="rId11" xr:uid="{0B521D66-5ABC-2C45-93FA-2CD73EF8875A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E391966-352D-6747-AC14-CD98910F2CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A18379-81A3-0348-84CD-4242574B5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="500" windowWidth="18400" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
+    <workbookView xWindow="7800" yWindow="500" windowWidth="18400" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="227">
   <si>
     <t>Lugburz</t>
   </si>
@@ -713,13 +713,19 @@
   </si>
   <si>
     <t>https://lotr.fandom.com/wiki/Herumor</t>
+  </si>
+  <si>
+    <t>Númenor(Black Númenóreans)</t>
+  </si>
+  <si>
+    <t>In later days when Morgoth first</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -738,6 +744,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -788,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -799,6 +813,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1114,10 +1130,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0522EB-0476-FB45-AC71-51653D98331B}">
-  <dimension ref="A1:O80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q94" sqref="Q94"/>
+    <sheetView tabSelected="1" topLeftCell="D89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2361,7 +2377,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2006</v>
       </c>
@@ -2381,7 +2397,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -2392,7 +2408,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2013</v>
       </c>
@@ -2418,7 +2434,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2013</v>
       </c>
@@ -2429,7 +2445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2013</v>
       </c>
@@ -2464,7 +2480,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2013</v>
       </c>
@@ -2490,7 +2506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2013</v>
       </c>
@@ -2501,7 +2517,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>2013</v>
       </c>
@@ -2512,7 +2528,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>2013</v>
       </c>
@@ -2523,7 +2539,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2018</v>
       </c>
@@ -2552,7 +2568,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2018</v>
       </c>
@@ -2581,7 +2597,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>2018</v>
       </c>
@@ -2601,7 +2617,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>2018</v>
       </c>
@@ -2611,11 +2627,20 @@
       <c r="C77" t="s">
         <v>61</v>
       </c>
+      <c r="D77" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="I77" t="s">
+        <v>218</v>
+      </c>
       <c r="N77" s="1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>2018</v>
       </c>
@@ -2626,7 +2651,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2018</v>
       </c>
@@ -2637,7 +2662,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2018</v>
       </c>
@@ -2647,6 +2672,31 @@
       <c r="C80" t="s">
         <v>64</v>
       </c>
+      <c r="D80" t="s">
+        <v>226</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="I80" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2661,6 +2711,7 @@
     <hyperlink ref="N74" r:id="rId9" xr:uid="{E519F547-03AC-FA4A-8730-D014042DF8CB}"/>
     <hyperlink ref="O74" r:id="rId10" xr:uid="{7E05CD30-8908-B545-B3A2-FDBAF51DDF43}"/>
     <hyperlink ref="N77" r:id="rId11" xr:uid="{0B521D66-5ABC-2C45-93FA-2CD73EF8875A}"/>
+    <hyperlink ref="N80" r:id="rId12" xr:uid="{B76E97F0-956E-DC4D-9392-C2E9200A4A57}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/structured_songs_data.xlsx
+++ b/structured_songs_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rainylty/STUDY/IVth/datascience/summer_school/summoning_and_lotr/Viz_of_Summoning_and_Middle_Earth-/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A18379-81A3-0348-84CD-4242574B5D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C13464-88D0-F740-A8EF-84415BB5B692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="500" windowWidth="18400" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="25620" windowHeight="21900" xr2:uid="{5E9570CC-4598-2A4D-A4CD-D4496BCFE1CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B0522EB-0476-FB45-AC71-51653D98331B}">
   <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D89" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
